--- a/biology/Botanique/Albana_di_Romagna_amabile/Albana_di_Romagna_amabile.xlsx
+++ b/biology/Botanique/Albana_di_Romagna_amabile/Albana_di_Romagna_amabile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Albana di Romagna amabile est un vin italien doux la région d'Émilie-Romagne doté d'une appellation DOCG depuis le 13 avril 1987. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans les provinces de Bologne, Forlì-Cesena et Ravenne dans les communes Borgo Tossignano, Casalfiumanese, Castel San Pietro Terme, Dozza, Fontanelice, Castrocaro Terme e Terra del Sole, Longiano, Meldola, Montiano, Roncofreddo, Brisighella, Casola Valsenio et Riolo Terme  ainsi qu'en partie dans les communes Imola, Ozzano dell'Emilia, Césène, Forlì, Forlimpopoli, Savignano sul Rubicone, Castel Bolognese et Faenza.
 La superficie planté en vigne est de 2.150 hectares.
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille avec des reflets de jaune doré après vieillissement
 odeur : légèrement parfumé, caractéristique avec des arômes d'amande, de pêche et d'agrumes
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Bologna  (1994/95)  8847,01
